--- a/biology/Botanique/Tamarin_(fruit)/Tamarin_(fruit).xlsx
+++ b/biology/Botanique/Tamarin_(fruit)/Tamarin_(fruit).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le tamarin de l'arabe تمر هندي , tamr hindiyy : datte indienne, est le fruit du tamarinier (Tamarindus indica).
-C'est un fruit tropical provenant d'Afrique, sa présence est attestée dans l'île de La Réunion dès 1701, on le trouve aussi aux Antilles[1]. Il est consommé un peu partout dans le monde et commercialisé en grandes surfaces. Il s'agit de gousses de couleur marron, qui sont remplies d'une pulpe renfermant de une à quatre graines selon la longueur et forme de la gousse. La saveur de sa chair acidulée est appréciée. Il est consommé en jus, en pâte de fruits et est un ingrédient de la cuisine indienne et sénégalaise où le tamarin est appelé dakkhar, du nom de la capitale.
+C'est un fruit tropical provenant d'Afrique, sa présence est attestée dans l'île de La Réunion dès 1701, on le trouve aussi aux Antilles. Il est consommé un peu partout dans le monde et commercialisé en grandes surfaces. Il s'agit de gousses de couleur marron, qui sont remplies d'une pulpe renfermant de une à quatre graines selon la longueur et forme de la gousse. La saveur de sa chair acidulée est appréciée. Il est consommé en jus, en pâte de fruits et est un ingrédient de la cuisine indienne et sénégalaise où le tamarin est appelé dakkhar, du nom de la capitale.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Aliment</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Antilles françaises : à la base de sirops, confitures ou punchs.
 Brésil (forêt amazonienne) : se consomme tel quel, on casse la coque comme celle d'une cacahuète et l'on mange la chair en éliminant les pépins gros et très durs.
@@ -560,7 +574,9 @@
           <t>Remèdes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La pulpe est connue pour ses effets laxatifs.
 Le fruit entre dans la composition de certains médicaments destinés à faciliter le transit lors des traitements anti-cancéreux.
@@ -592,7 +608,9 @@
           <t>Autres espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Aux Antilles, on appelle aussi « tamarin » le fruit du néflier des Indes Vangueria madagascariensis.
 </t>
